--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKBH_.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Xuất kho/Tháng 10/XKBH_.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Xuất kho\Tháng 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Xuất kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643F59-E259-4657-9CC0-7FE088C83864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4706DA0-EC99-4ED1-BC2B-7B0FCF82093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XuatKho_SX" sheetId="10" r:id="rId1"/>
+    <sheet name="XuatKho_BH" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_BH!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
